--- a/NPFC.xlsx
+++ b/NPFC.xlsx
@@ -1230,12 +1230,12 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="G138" activeCellId="0" sqref="G138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.99"/>
@@ -2088,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37" t="n">
@@ -2099,7 +2099,7 @@
       <c r="K27" s="38"/>
       <c r="L27" s="39" t="n">
         <f aca="false">SUM(E27:K27)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
